--- a/biology/Botanique/Limnocharitaceae/Limnocharitaceae.xlsx
+++ b/biology/Botanique/Limnocharitaceae/Limnocharitaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Limnocharitacées regroupe des plantes monocotylédones ; elle comprend peu d'espèces réparties en trois genres :
 Butomopsis
@@ -515,9 +527,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Limnocharis, dérivé des mots grecs λιμνο / limno, « qui vit dans les étangs », et χαρις / charis, « Grâces ; déesses de la Grâce ; beauté », littéralement « beauté des étangs ». Ce mot aurait été employé dans une épopée  intitulée la batrachomyomachie, « bataille de rats et de grenouilles », faussement attribuée à Homère[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Limnocharis, dérivé des mots grecs λιμνο / limno, « qui vit dans les étangs », et χαρις / charis, « Grâces ; déesses de la Grâce ; beauté », littéralement « beauté des étangs ». Ce mot aurait été employé dans une épopée  intitulée la batrachomyomachie, « bataille de rats et de grenouilles », faussement attribuée à Homère.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Si la classification phylogénétique APG II (2003)[2] reconnaissait cette famille, pour la classification phylogénétique APG III (2009)[3] elle est invalide et incorporée dans la famille Alismataceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si la classification phylogénétique APG II (2003) reconnaissait cette famille, pour la classification phylogénétique APG III (2009) elle est invalide et incorporée dans la famille Alismataceae.
 Sur les autres projets Wikimedia :
 Limnocharitaceae, sur Wikimedia Commons
 </t>
